--- a/add/agents.xlsx
+++ b/add/agents.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
-  <si>
-    <t>ANIKET BANKAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>CHANDRAKANT KADAM</t>
   </si>
@@ -44,21 +41,12 @@
     <t>MASOOD SHAIKH</t>
   </si>
   <si>
-    <t>MOHD MASOOD SHAIKH</t>
-  </si>
-  <si>
-    <t>NANDU</t>
-  </si>
-  <si>
     <t>NANDU-ANDE-(EMP)</t>
   </si>
   <si>
     <t>NAVIN-THN-(EMP)</t>
   </si>
   <si>
-    <t>PRANAY YADAV</t>
-  </si>
-  <si>
     <t>RAJESH JADHAV THN</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>SACHIN S-FORT-(EMP)</t>
   </si>
   <si>
-    <t>SANJAY AMBOLKAR</t>
-  </si>
-  <si>
     <t>SANJAY-ANDE-(EMP)</t>
   </si>
   <si>
@@ -83,9 +68,6 @@
     <t>SARVANKAR-ANDE-(AGENT)</t>
   </si>
   <si>
-    <t>SONU  YADAV</t>
-  </si>
-  <si>
     <t>SURESH-VASHI-(EMP)</t>
   </si>
   <si>
@@ -101,142 +83,58 @@
     <t>agent</t>
   </si>
   <si>
-    <t>400001, 400005, 400026, 400049, 400050, 400051, 400052, 400054, 400055, 400056, 400057, 400059, 400060, 400063, 400069, 400072, 400098, 400099, 400602</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400003, 400005, 400007, 400009, 400011, 400015, 400020, 400021, 400023, 400032, 400038, 400039</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400003, 400004, 400005, 400007, 400009, 400010, 400011, 400012, 400013, 400014, 400015, 400017, 400018, 400019, 400020, 400021, 400022, 400023, 400025, 400028, 400030, 400032, 400033, 400034, 400037, 400038, 400039</t>
-  </si>
-  <si>
-    <t>400601, 400602, 400604, 400606, 400607, 400608, 400610, 400612, 400615, 421003, 421005, 421101, 421103, 421203, 421204, 421301, 421302, 421306, 421311, 421501, 421503, 421601, 421603</t>
-  </si>
-  <si>
-    <t>400060, 400601, 400602, 400603, 400604, 400606, 400607, 400608, 400610, 400612, 400615, 400706, 410206, 421001, 421002, 421003, 421004, 421005, 421101, 421103, 421203, 421204, 421301, 421302, 421306, 421311, 421501, 421503, 421505, 421506, 421601, 421603</t>
-  </si>
-  <si>
-    <t>400042, 400078, 400079, 400080, 400081, 400082, 400083, 400086, 400087</t>
-  </si>
-  <si>
-    <t>400001, 400008, 400042, 400070, 400071, 400075, 400076, 400077, 400078, 400079, 400080, 400081, 400082, 400083, 400084, 400086, 400087, 400089, 400709</t>
-  </si>
-  <si>
-    <t>400001, 400006, 400007, 400008, 400010, 400011, 400012, 400013, 400014, 400016, 400017, 400018, 400019, 400020, 400022, 400025, 400026, 400027, 400028, 400030, 400031, 400033, 400034, 400037</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400004, 400006, 400007, 400008, 400009, 400010, 400011, 400012, 400013, 400014, 400016, 400017, 400018, 400019, 400020, 400021, 400022, 400023, 400024, 400025, 400026, 400027, 400028, 400030, 400031, 400033, 400034, 400036, 400037, 400039, 400047, 400053, 400071, 400075, 400601, 400602</t>
-  </si>
-  <si>
-    <t>400052, 400063, 400064, 400066, 400067, 400068, 400091, 400092, 400095, 400097, 400101, 400102, 400103, 400104, 401101, 401105, 401208</t>
-  </si>
-  <si>
-    <t>400063, 400064, 400066, 400067, 400068, 400091, 400092, 400095, 400101, 400103, 400104, 401101</t>
-  </si>
-  <si>
-    <t>400001, 400029, 400049, 400050, 400051, 400052, 400053, 400054, 400055, 400056, 400057, 400058, 400059, 400060, 400063, 400064, 400066, 400067, 400068, 400069, 400086, 400092, 400095, 400097, 400099, 400101, 400102, 400103, 400104, 401101, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400001, 400050, 400051, 400054, 400057, 400059, 400060, 400063, 400064, 400066, 400067, 400069, 400092, 400097, 400099, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400011, 400012, 400013, 400018, 400025, 400036</t>
-  </si>
-  <si>
-    <t>401201, 401202, 401203, 401205, 401207, 401208, 401209, 401303, 401305</t>
-  </si>
-  <si>
-    <t>401107, 401200, 401201, 401202, 401203, 401204, 401205, 401206, 401207, 401208, 401209, 401210, 401301, 401302, 401303, 401304, 401305, 401403, 401501, 401504, 401602, 401606</t>
-  </si>
-  <si>
-    <t>400097, 401101, 401102, 401107, 401200, 401201, 401202, 401203, 401204, 401205, 401206, 401207, 401208, 401209, 401210, 401301, 401302, 401303, 401304, 401305, 401403, 401404, 401407, 401501, 401504, 401601, 401602, 401603, 401605, 401606, 401607, 401701, 401702, 401709</t>
-  </si>
-  <si>
-    <t>400060, 400601, 400602, 400603, 400604, 400605, 400606, 400607, 400608, 400612, 400613, 410210, 421001, 421003, 421103, 421201, 421202, 421203, 421204, 421301, 421302, 421306, 421601, 421605</t>
-  </si>
-  <si>
-    <t>400001, 400060, 400061, 400080, 400251, 400601, 400602, 400603, 400604, 400605, 400606, 400607, 400608, 400612, 400613, 400615, 402104, 406007, 410210, 421001, 421003, 421004, 421005, 421103, 421201, 421202, 421203, 421204, 421301, 421302, 421305, 421306, 421501, 421503, 421601, 421605</t>
-  </si>
-  <si>
-    <t>400092, 400103</t>
-  </si>
-  <si>
-    <t>400068, 400092, 400103</t>
-  </si>
-  <si>
-    <t>400001, 400026, 400059, 400082, 400601, 400602, 400603, 400604, 400605, 400606, 400607, 400608, 400610, 400612, 400615, 400616, 400708, 421001, 421003, 421004, 421005, 421101, 421203, 421204, 421301, 421302, 421305, 421306, 421311, 421382, 421501, 421503</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400003, 400004, 400005, 400006, 400007, 400008, 400009, 400010, 400011, 400012, 400013, 400015, 400018, 400019, 400020, 400021, 400024, 400025, 400026, 400027, 400028, 400030, 400031, 400033, 400034, 400035, 400036, 400042, 400043, 400053, 400057, 400068, 400070, 400071, 400072, 400074, 400075, 400076, 400077, 400079, 400081, 400083, 400084, 400086, 400088, 400089, 400092, 400094, 400103</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400003, 400004, 400006, 400007, 400008, 400009, 400010, 400011, 400012, 400013, 400018, 400019, 400020, 400024, 400025, 400026, 400027, 400028, 400030, 400031, 400033, 400034, 400035, 400036, 400043, 400053, 400070, 400071, 400074, 400075, 400077, 400079, 400081, 400084, 400086, 400088, 400089, 400094</t>
-  </si>
-  <si>
-    <t>400001, 400601, 400602, 400603, 400604, 400605, 400606, 400607, 400608, 400610, 400615, 400616, 400708, 421101, 421203, 421302, 421305, 421311</t>
-  </si>
-  <si>
-    <t>400070, 400076, 400208, 400218, 400601, 400606, 400613, 400614, 400615, 400702, 400703, 400704, 400705, 400706, 400707, 400708, 400710, 402109, 410201, 410203, 410206, 410207, 410209, 410210, 410218, 421001, 421002, 421003</t>
-  </si>
-  <si>
-    <t>400208, 400218, 400601, 400606, 400614, 400702, 400703, 400705, 400706, 400707, 400708, 402109, 410201, 410203, 410206, 410207, 410209, 410210, 410218</t>
-  </si>
-  <si>
-    <t>400001, 400002, 400007, 400008, 400019, 400021, 400024, 400042, 400043, 400044, 400053, 400057, 400066, 400068, 400070, 400071, 400072, 400074, 400075, 400076, 400077, 400078, 400079, 400080, 400081, 400083, 400084, 400086, 400088, 400089, 400092, 400094</t>
-  </si>
-  <si>
-    <t>400008, 400021, 400024, 400043, 400044, 400053, 400068, 400070, 400071, 400074, 400075, 400077, 400079, 400080, 400081, 400083, 400084, 400086, 400088, 400089, 400094</t>
-  </si>
-  <si>
-    <t>400050, 400053, 400054, 400055, 400057, 400058, 400059, 400060, 400061, 400063, 400064, 400065, 400069, 400070, 400072, 400076, 400078, 400084, 400088, 400093, 400095, 400096, 400098, 400099, 400102, 400104</t>
-  </si>
-  <si>
-    <t>400053, 400054, 400057, 400058, 400059, 400060, 400063, 400064, 400065, 400069, 400072, 400076, 400084, 400093, 400095, 400096, 400099, 400102</t>
-  </si>
-  <si>
-    <t>400049, 400050, 400051, 400052, 400054, 400055, 400057, 400060</t>
-  </si>
-  <si>
-    <t>400049, 400050, 400052, 400053, 400057, 400059, 400060, 400062, 400063, 400064, 400065, 400066, 400067, 400068, 400069, 400072, 400076, 400091, 400092, 400093, 400095, 400097, 400099, 400101, 400102, 400103, 400105, 401101, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400050, 400059, 400060, 400063, 400064, 400065, 400066, 400067, 400068, 400069, 400072, 400076, 400091, 400092, 400093, 400095, 400097, 400099, 400103, 401101, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400070, 400074, 400075, 400601, 400605, 400614, 400701, 400703, 400705, 400706, 400707, 400708, 400709, 400710, 410203, 410206</t>
-  </si>
-  <si>
-    <t>400001, 400013, 400064, 400070, 400074, 400075, 400601, 400605, 400607, 400612, 400614, 400701, 400702, 400703, 400704, 400705, 400706, 400707, 400708, 400709, 400710, 401107, 410203, 410206, 410210, 410218, 421301, 421306</t>
-  </si>
-  <si>
-    <t>400001, 400004, 400007, 400008, 400010, 400022, 400024, 400029, 400033, 400042, 400043, 400050, 400051, 400052, 400053, 400055, 400058, 400060, 400063, 400069, 400070, 400071, 400074, 400075, 400077, 400078, 400079, 400080, 400081, 400082, 400083, 400084, 400086, 400087, 400088, 400089, 400093, 400097, 400098, 400101, 400102, 400703, 400705, 400706, 401107, 410203, 410206, 410208, 410210</t>
-  </si>
-  <si>
-    <t>400024, 400042, 400063, 400070, 400071, 400074, 400075, 400077, 400078, 400079, 400080, 400081, 400083, 400084, 400086, 400088, 400089, 400101, 401107</t>
-  </si>
-  <si>
-    <t>400001, 400029, 400047, 400049, 400050, 400051, 400052, 400053, 400054, 400055, 400056, 400057, 400058, 400059, 400060, 400061, 400062, 400063, 400064, 400066, 400067, 400068, 400069, 400090, 400092, 400098, 400102, 400104, 401104, 401107</t>
-  </si>
-  <si>
-    <t>400001, 400004, 400005, 400010, 400018, 400029, 400043, 400047, 400049, 400050, 400051, 400052, 400053, 400054, 400055, 400056, 400057, 400058, 400059, 400060, 400061, 400062, 400063, 400064, 400066, 400067, 400068, 400069, 400090, 400092, 400093, 400097, 400098, 400099, 400102, 400104, 401102, 401104, 401107, 401203, 421201</t>
-  </si>
-  <si>
-    <t>400001, 400029, 400050, 400051, 400052, 400054, 400055, 400056, 400057, 400059, 400071, 400098, 400099, 400101, 401101, 401102, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400001, 400029, 400049, 400050, 400051, 400052, 400053, 400054, 400055, 400056, 400057, 400058, 400059, 400062, 400069, 400071, 400098, 400099, 400101, 400104, 400105, 401101, 401102, 401104, 401105, 401107</t>
-  </si>
-  <si>
-    <t>400601, 400602, 400607</t>
-  </si>
-  <si>
-    <t>400601, 400602, 400606, 400607</t>
-  </si>
-  <si>
-    <t>most_frequent_pincode</t>
-  </si>
-  <si>
-    <t>secondary_pincode</t>
+    <t>400602, 421001, 421003, 421004, 421005, 421306, 421501, 421503, 421506, 421601, 421603</t>
+  </si>
+  <si>
+    <t>400047, 400049, 400050, 400053, 400054, 400058, 400061, 400062, 400064, 400067, 400090, 400104</t>
+  </si>
+  <si>
+    <t>401101, 401104, 401107</t>
+  </si>
+  <si>
+    <t>400024, 400029, 400042, 400051, 400070, 400079, 400083, 400084</t>
+  </si>
+  <si>
+    <t>400701, 400703, 400705, 400708, 400709, 400710</t>
+  </si>
+  <si>
+    <t>400002, 400005, 400009, 400020, 400021, 400023, 400032, 400039</t>
+  </si>
+  <si>
+    <t>400057, 400059, 400063, 400065, 400069, 400072, 400076, 400093, 400097, 400102</t>
+  </si>
+  <si>
+    <t>400001, 400003, 400004, 400006, 400007, 400008, 400010, 400012, 400013, 400015, 400027, 400028, 400030, 400033, 400034, 400036, 400038, 400101</t>
+  </si>
+  <si>
+    <t>400043, 400071, 400074, 400075, 400077, 400080, 400086, 400088, 400089, 400094</t>
+  </si>
+  <si>
+    <t>400614, 400702, 400703, 400705, 400706, 400707, 410203, 410206, 410207, 410208, 410209, 410210, 410215, 410218, 410290</t>
+  </si>
+  <si>
+    <t>400605, 400606, 400608, 400610, 400615</t>
+  </si>
+  <si>
+    <t>400601, 400603, 400604, 400607, 400612, 421002, 421103, 421201, 421202, 421203, 421204, 421301, 421302, 421305, 421605</t>
+  </si>
+  <si>
+    <t>401102, 401105, 401106, 401201, 401202, 401203, 401206, 401208, 401209, 401301, 401302, 401303, 401305, 401401, 401403, 401404, 401501, 401504, 401506, 401601, 401602, 401605, 401606, 401701, 401702</t>
+  </si>
+  <si>
+    <t>400055, 400056, 400060, 400098, 400099</t>
+  </si>
+  <si>
+    <t>400066, 400068, 400091, 400092, 400095, 400101, 400103, 400105</t>
+  </si>
+  <si>
+    <t>400011, 400014, 400016, 400018, 400019, 400022, 400025, 400026, 400031, 400037</t>
+  </si>
+  <si>
+    <t>400078, 400081, 400082, 400087</t>
+  </si>
+  <si>
+    <t>pincode</t>
   </si>
 </sst>
 </file>
@@ -254,21 +152,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -276,16 +180,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -568,298 +506,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>400052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>400072</v>
-      </c>
-      <c r="C17" s="1">
-        <v>400072</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>